--- a/WBS - Sales-Application.xlsx
+++ b/WBS - Sales-Application.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/adinath_bhor_capgemini_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sales_application_sprint_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="8_{94577B67-1141-492D-AF2D-202C869A0263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBAF57B7-DD35-4BC3-AC33-8624AD3EA6DE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29162ECC-216C-4C9B-8E64-8DEA144527CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Login Api</t>
   </si>
   <si>
-    <t>SignUp</t>
-  </si>
-  <si>
     <t>Shipper Api Testing</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>Module 3 - (Shipper Screeen)UI &amp; Integration</t>
+  </si>
+  <si>
+    <t>SignUp Api</t>
   </si>
 </sst>
 </file>
@@ -349,12 +349,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -372,6 +366,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -678,15 +678,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -801,7 +801,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="5">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>31</v>
@@ -898,8 +898,8 @@
       <c r="H17" s="5">
         <v>45110</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>31</v>
+      <c r="I17" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
@@ -917,8 +917,8 @@
       <c r="H18" s="5">
         <v>45110</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>31</v>
+      <c r="I18" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
@@ -964,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -982,101 +982,101 @@
       <c r="C22" s="6">
         <v>13</v>
       </c>
-      <c r="D22" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14" t="s">
+      <c r="D22" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H22" s="5">
-        <v>45108</v>
+        <v>45112</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="11"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="6">
         <v>14</v>
       </c>
-      <c r="D23" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14" t="s">
+      <c r="D23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="5">
-        <v>45108</v>
+        <v>45112</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="11"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="6">
         <v>15</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14" t="s">
+      <c r="D24" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="5">
-        <v>45108</v>
+        <v>45112</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="11"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="6">
         <v>16</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14" t="s">
-        <v>40</v>
+      <c r="D25" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="H25" s="5">
-        <v>45108</v>
+        <v>45112</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J25" s="11"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="6">
         <v>17</v>
       </c>
-      <c r="D26" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14" t="s">
+      <c r="D26" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="5">
-        <v>45108</v>
+        <v>45112</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J26" s="11"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3"/>
@@ -1122,8 +1122,8 @@
       <c r="H30" s="5">
         <v>45110</v>
       </c>
-      <c r="I30" s="8" t="s">
-        <v>31</v>
+      <c r="I30" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
         <v>23</v>
       </c>
       <c r="H31" s="5">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="I31" s="8" t="s">
         <v>31</v>
@@ -1149,32 +1149,32 @@
       <c r="C32" s="3">
         <v>3</v>
       </c>
-      <c r="D32" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14" t="s">
-        <v>39</v>
+      <c r="D32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H32" s="5">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="I32" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="J32" s="10"/>
     </row>
     <row r="33" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C33" s="3">
         <v>4</v>
       </c>
-      <c r="D33" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14" t="s">
+      <c r="D33" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12" t="s">
         <v>21</v>
       </c>
       <c r="H33" s="5">
@@ -1183,18 +1183,18 @@
       <c r="I33" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="12"/>
+      <c r="J33" s="10"/>
     </row>
     <row r="34" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C34" s="3">
         <v>5</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14" t="s">
+      <c r="D34" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H34" s="5">
@@ -1203,14 +1203,14 @@
       <c r="I34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J34" s="12"/>
+      <c r="J34" s="10"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C35" s="3">
         <v>6</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1220,8 +1220,8 @@
       <c r="H35" s="5">
         <v>45110</v>
       </c>
-      <c r="I35" s="8" t="s">
-        <v>31</v>
+      <c r="I35" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.3">
@@ -1229,7 +1229,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1239,8 +1239,8 @@
       <c r="H36" s="5">
         <v>45110</v>
       </c>
-      <c r="I36" s="8" t="s">
-        <v>31</v>
+      <c r="I36" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
@@ -1248,18 +1248,18 @@
         <v>8</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="5">
         <v>45110</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>31</v>
+      <c r="I37" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
@@ -1267,18 +1267,18 @@
         <v>9</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H38" s="5">
         <v>45110</v>
       </c>
-      <c r="I38" s="8" t="s">
-        <v>31</v>
+      <c r="I38" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.3">
@@ -1310,98 +1310,98 @@
       <c r="I41" s="3"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="14">
+      <c r="C42" s="12">
         <v>1</v>
       </c>
-      <c r="D42" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14" t="s">
+      <c r="D42" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H42" s="5">
         <v>45112</v>
       </c>
-      <c r="I42" s="15" t="s">
-        <v>49</v>
+      <c r="I42" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="14">
+      <c r="C43" s="12">
         <v>2</v>
       </c>
-      <c r="D43" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14" t="s">
-        <v>39</v>
+      <c r="D43" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H43" s="5">
         <v>45112</v>
       </c>
-      <c r="I43" s="15" t="s">
-        <v>49</v>
+      <c r="I43" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="14">
+      <c r="C44" s="12">
         <v>3</v>
       </c>
-      <c r="D44" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14" t="s">
+      <c r="D44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
         <v>26</v>
       </c>
       <c r="H44" s="5">
         <v>45112</v>
       </c>
-      <c r="I44" s="15" t="s">
-        <v>49</v>
+      <c r="I44" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="14">
+      <c r="C45" s="12">
         <v>4</v>
       </c>
-      <c r="D45" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14" t="s">
+      <c r="D45" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H45" s="5">
         <v>45112</v>
       </c>
-      <c r="I45" s="15" t="s">
-        <v>49</v>
+      <c r="I45" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="14">
+      <c r="C46" s="12">
         <v>5</v>
       </c>
-      <c r="D46" s="16" t="s">
-        <v>60</v>
+      <c r="D46" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
-      <c r="G46" s="14" t="s">
-        <v>39</v>
+      <c r="G46" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="H46" s="5">
         <v>45112</v>
       </c>
-      <c r="I46" s="15" t="s">
-        <v>49</v>
+      <c r="I46" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
@@ -1424,7 +1424,7 @@
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C49" s="6"/>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="6"/>
@@ -1434,124 +1434,124 @@
       <c r="I49" s="6"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="14">
+      <c r="C50" s="12">
         <v>1</v>
       </c>
-      <c r="D50" s="14" t="s">
+      <c r="D50" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I50" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="5">
-        <v>45110</v>
-      </c>
-      <c r="I50" s="15" t="s">
+    </row>
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C51" s="12">
+        <v>2</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C51" s="14">
-        <v>2</v>
-      </c>
-      <c r="D51" s="14" t="s">
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C52" s="12">
+        <v>3</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="5">
-        <v>45110</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="14">
-        <v>3</v>
-      </c>
-      <c r="D52" s="14" t="s">
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C53" s="12">
+        <v>4</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="5">
-        <v>45110</v>
-      </c>
-      <c r="I52" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="14">
-        <v>4</v>
-      </c>
-      <c r="D53" s="14" t="s">
+      <c r="E53" s="12"/>
+      <c r="F53" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14" t="s">
+      <c r="G53" s="12"/>
+      <c r="H53" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="12">
+        <v>5</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="5">
-        <v>45111</v>
-      </c>
-      <c r="I53" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="14">
-        <v>5</v>
-      </c>
-      <c r="D54" s="14" t="s">
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="12">
+        <v>6</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I54" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="14">
-        <v>6</v>
-      </c>
-      <c r="D55" s="14" t="s">
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C56" s="12">
+        <v>7</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C56" s="14">
-        <v>7</v>
-      </c>
-      <c r="D56" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
       <c r="H56" s="5">
         <v>45114</v>
       </c>
-      <c r="I56" s="15" t="s">
-        <v>49</v>
+      <c r="I56" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="3:9" x14ac:dyDescent="0.3">

--- a/WBS - Sales-Application.xlsx
+++ b/WBS - Sales-Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sales_application_sprint_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29162ECC-216C-4C9B-8E64-8DEA144527CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C131A60-D111-46CD-B008-679D79E7B85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,13 +265,6 @@
       <b/>
       <sz val="10"/>
       <color theme="5"/>
-      <name val="Candara"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFC00000"/>
       <name val="Candara"/>
       <family val="2"/>
     </font>
@@ -361,9 +354,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -372,6 +362,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C4:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -678,15 +671,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -773,7 +766,7 @@
       <c r="C11" s="3">
         <v>2</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3"/>
@@ -792,7 +785,7 @@
       <c r="C12" s="3">
         <v>3</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="3"/>
@@ -811,7 +804,7 @@
       <c r="C13" s="3">
         <v>4</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="3"/>
@@ -830,7 +823,7 @@
       <c r="C14" s="3">
         <v>5</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="3"/>
@@ -849,7 +842,7 @@
       <c r="C15" s="3">
         <v>6</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="3"/>
@@ -868,7 +861,7 @@
       <c r="C16" s="3">
         <v>7</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="3"/>
@@ -887,7 +880,7 @@
       <c r="C17" s="3">
         <v>8</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="3"/>
@@ -906,7 +899,7 @@
       <c r="C18" s="3">
         <v>9</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="3"/>
@@ -925,7 +918,7 @@
       <c r="C19" s="3">
         <v>10</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="3"/>
@@ -944,7 +937,7 @@
       <c r="C20" s="3">
         <v>11</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="3"/>
@@ -963,7 +956,7 @@
       <c r="C21" s="3">
         <v>12</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="3" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="3"/>
@@ -979,7 +972,7 @@
       </c>
     </row>
     <row r="22" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="6">
+      <c r="C22" s="3">
         <v>13</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -999,7 +992,7 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="6">
+      <c r="C23" s="3">
         <v>14</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -1019,7 +1012,7 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="6">
+      <c r="C24" s="3">
         <v>15</v>
       </c>
       <c r="D24" s="12" t="s">
@@ -1039,7 +1032,7 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="6">
+      <c r="C25" s="3">
         <v>16</v>
       </c>
       <c r="D25" s="12" t="s">
@@ -1059,7 +1052,7 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="6">
+      <c r="C26" s="3">
         <v>17</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -1324,7 +1317,7 @@
       <c r="H42" s="5">
         <v>45112</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1343,7 +1336,7 @@
       <c r="H43" s="5">
         <v>45112</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I43" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1362,7 +1355,7 @@
       <c r="H44" s="5">
         <v>45112</v>
       </c>
-      <c r="I44" s="13" t="s">
+      <c r="I44" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1381,7 +1374,7 @@
       <c r="H45" s="5">
         <v>45112</v>
       </c>
-      <c r="I45" s="13" t="s">
+      <c r="I45" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1389,7 +1382,7 @@
       <c r="C46" s="12">
         <v>5</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="13" t="s">
         <v>59</v>
       </c>
       <c r="E46" s="6"/>
@@ -1400,7 +1393,7 @@
       <c r="H46" s="5">
         <v>45112</v>
       </c>
-      <c r="I46" s="13" t="s">
+      <c r="I46" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1446,7 +1439,7 @@
       <c r="H50" s="5">
         <v>45114</v>
       </c>
-      <c r="I50" s="13" t="s">
+      <c r="I50" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1463,7 +1456,7 @@
       <c r="H51" s="5">
         <v>45114</v>
       </c>
-      <c r="I51" s="13" t="s">
+      <c r="I51" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1480,7 +1473,7 @@
       <c r="H52" s="5">
         <v>45114</v>
       </c>
-      <c r="I52" s="13" t="s">
+      <c r="I52" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1499,7 +1492,7 @@
       <c r="H53" s="5">
         <v>45114</v>
       </c>
-      <c r="I53" s="13" t="s">
+      <c r="I53" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1516,7 +1509,7 @@
       <c r="H54" s="5">
         <v>45114</v>
       </c>
-      <c r="I54" s="13" t="s">
+      <c r="I54" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1533,7 +1526,7 @@
       <c r="H55" s="5">
         <v>45114</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="I55" s="16" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1550,7 +1543,7 @@
       <c r="H56" s="5">
         <v>45114</v>
       </c>
-      <c r="I56" s="13" t="s">
+      <c r="I56" s="16" t="s">
         <v>48</v>
       </c>
     </row>

--- a/WBS - Sales-Application.xlsx
+++ b/WBS - Sales-Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sales_application_sprint_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C131A60-D111-46CD-B008-679D79E7B85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC490C-F959-4B66-8668-FDEC9D3A44F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
   <si>
     <t>Sr No</t>
   </si>
@@ -159,15 +159,9 @@
     <t>Module 5 - UI and Integration</t>
   </si>
   <si>
-    <t>Order Module Testing</t>
-  </si>
-  <si>
     <t>Shipper Screen Testing</t>
   </si>
   <si>
-    <t>Customer Screen Testing</t>
-  </si>
-  <si>
     <t>Deployment Strategy</t>
   </si>
   <si>
@@ -214,6 +208,21 @@
   </si>
   <si>
     <t>SignUp Api</t>
+  </si>
+  <si>
+    <t>Dashboard(Shipper)</t>
+  </si>
+  <si>
+    <t>Dashboard(Employee)</t>
+  </si>
+  <si>
+    <t>Dashboard(Administrator)</t>
+  </si>
+  <si>
+    <t>Employee Screen Testing</t>
+  </si>
+  <si>
+    <t>Administrator Screen Testing</t>
   </si>
 </sst>
 </file>
@@ -357,14 +366,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -651,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:J79"/>
+  <dimension ref="C4:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -671,15 +680,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -750,9 +759,7 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
+      <c r="C10" s="3"/>
       <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
@@ -764,7 +771,7 @@
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>
@@ -783,56 +790,56 @@
     </row>
     <row r="12" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C12" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H12" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>31</v>
+        <v>45108</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H13" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>31</v>
+        <v>45108</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C14" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H14" s="5">
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>8</v>
@@ -840,10 +847,10 @@
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C15" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -851,7 +858,7 @@
         <v>25</v>
       </c>
       <c r="H15" s="5">
-        <v>45108</v>
+        <v>45110</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>8</v>
@@ -859,7 +866,7 @@
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C16" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>27</v>
@@ -870,7 +877,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="5">
-        <v>45108</v>
+        <v>45112</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>8</v>
@@ -878,18 +885,18 @@
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H17" s="5">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>8</v>
@@ -897,18 +904,18 @@
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H18" s="5">
-        <v>45110</v>
+        <v>45112</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>8</v>
@@ -916,18 +923,18 @@
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H19" s="5">
-        <v>45108</v>
+        <v>45112</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>8</v>
@@ -935,7 +942,7 @@
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>33</v>
@@ -946,7 +953,7 @@
         <v>25</v>
       </c>
       <c r="H20" s="5">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>8</v>
@@ -954,10 +961,10 @@
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -965,86 +972,83 @@
         <v>25</v>
       </c>
       <c r="H21" s="5">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
-        <v>13</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H22" s="5">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
-        <v>14</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H23" s="5">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="I23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
-        <v>15</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="H24" s="5">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="H25" s="5">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>31</v>
@@ -1053,18 +1057,18 @@
     </row>
     <row r="26" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H26" s="5">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>31</v>
@@ -1072,181 +1076,125 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="8"/>
+      <c r="C27" s="3">
+        <v>17</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="9"/>
     </row>
     <row r="28" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="C28" s="3">
+        <v>18</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="9"/>
     </row>
     <row r="29" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="3"/>
-      <c r="D29" s="4" t="s">
+      <c r="C29" s="3">
         <v>19</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="9"/>
+    </row>
+    <row r="30" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="5">
-        <v>45110</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="10"/>
-    </row>
-    <row r="33" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C33" s="3">
-        <v>4</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H33" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C34" s="3">
-        <v>5</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H34" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="10"/>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C35" s="3">
-        <v>6</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="5">
-        <v>45110</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C36" s="3">
-        <v>7</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>35</v>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="3"/>
+      <c r="D36" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
-      <c r="G36" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="5">
-        <v>45110</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H37" s="5">
         <v>45110</v>
@@ -1257,15 +1205,15 @@
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="3">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="5">
         <v>45110</v>
@@ -1274,59 +1222,91 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C39" s="3"/>
+    <row r="39" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <v>3</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" s="5">
+        <v>45110</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <v>4</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C41" s="3"/>
-      <c r="D41" s="4" t="s">
-        <v>17</v>
+      <c r="G40" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="5">
+        <v>45112</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C41" s="3">
+        <v>5</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="5">
+        <v>45112</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="10"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="12">
-        <v>1</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12" t="s">
-        <v>24</v>
+      <c r="C42" s="3">
+        <v>6</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="H42" s="5">
         <v>45112</v>
       </c>
-      <c r="I42" s="16" t="s">
-        <v>48</v>
+      <c r="I42" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="12">
-        <v>2</v>
+      <c r="C43" s="3">
+        <v>7</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -1334,37 +1314,37 @@
         <v>38</v>
       </c>
       <c r="H43" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I43" s="16" t="s">
-        <v>48</v>
+        <v>45113</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="12">
-        <v>3</v>
+      <c r="C44" s="3">
+        <v>8</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H44" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I44" s="16" t="s">
-        <v>48</v>
+        <v>45113</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="12">
-        <v>4</v>
+      <c r="C45" s="3">
+        <v>9</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -1372,30 +1352,19 @@
         <v>24</v>
       </c>
       <c r="H45" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>48</v>
+        <v>45113</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="12">
-        <v>5</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H46" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>48</v>
-      </c>
+      <c r="C46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C47" s="3"/>
@@ -1408,7 +1377,9 @@
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="D48" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -1416,208 +1387,258 @@
       <c r="I48" s="3"/>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="6"/>
-      <c r="D49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="C49" s="12">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50" s="12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
+      <c r="G50" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="H50" s="5">
-        <v>45114</v>
-      </c>
-      <c r="I50" s="16" t="s">
-        <v>48</v>
+        <v>45113</v>
+      </c>
+      <c r="I50" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51" s="12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="G51" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="H51" s="5">
-        <v>45114</v>
-      </c>
-      <c r="I51" s="16" t="s">
-        <v>48</v>
+        <v>45113</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52" s="12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="G52" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H52" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I52" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C53" s="12">
+        <v>5</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I53" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C56" s="6"/>
+      <c r="D56" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C57" s="12">
+        <v>1</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="5">
         <v>45114</v>
       </c>
-      <c r="I52" s="16" t="s">
+      <c r="I57" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C58" s="12">
+        <v>2</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I58" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C59" s="12">
+        <v>3</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="12">
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I59" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="12">
         <v>4</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D60" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I60" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C61" s="12">
+        <v>5</v>
+      </c>
+      <c r="D61" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12" t="s">
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I61" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C62" s="12">
+        <v>6</v>
+      </c>
+      <c r="D62" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="5">
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="5">
         <v>45114</v>
       </c>
-      <c r="I53" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="12">
-        <v>5</v>
-      </c>
-      <c r="D54" s="12" t="s">
+      <c r="I62" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C63" s="12">
+        <v>7</v>
+      </c>
+      <c r="D63" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="5">
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="5">
         <v>45114</v>
       </c>
-      <c r="I54" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="12">
-        <v>6</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="5">
-        <v>45114</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C56" s="12">
-        <v>7</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="5">
-        <v>45114</v>
-      </c>
-      <c r="I56" s="16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
+      <c r="I63" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="64" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C65" s="3"/>
@@ -1646,69 +1667,6 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -1738,9 +1696,72 @@
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C86" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WBS - Sales-Application.xlsx
+++ b/WBS - Sales-Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sales_application_sprint_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CC490C-F959-4B66-8668-FDEC9D3A44F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC467E4-2E43-468F-ABB4-80985E65F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>Sr No</t>
   </si>
@@ -60,36 +60,21 @@
     <t>Angular Project Creation</t>
   </si>
   <si>
-    <t>HomePage</t>
-  </si>
-  <si>
     <t>DataBase Hosted on MsSql</t>
   </si>
   <si>
     <t>Scaffolding of DataBase</t>
   </si>
   <si>
-    <t>Employee Rest Api</t>
-  </si>
-  <si>
     <t>Work Item</t>
   </si>
   <si>
-    <t>Release</t>
-  </si>
-  <si>
     <t>Release Setup</t>
   </si>
   <si>
     <t xml:space="preserve">Deployment </t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Login Module Testing</t>
-  </si>
-  <si>
     <t>Suyash</t>
   </si>
   <si>
@@ -108,39 +93,12 @@
     <t>Omkar</t>
   </si>
   <si>
-    <t>Shipper Rest Api</t>
-  </si>
-  <si>
-    <t>Orders Rest Api</t>
-  </si>
-  <si>
-    <t>Territary Rest Api</t>
-  </si>
-  <si>
     <t>Adinath</t>
   </si>
   <si>
     <t>WIP</t>
   </si>
   <si>
-    <t>SignUp Module Testing</t>
-  </si>
-  <si>
-    <t>Login Api</t>
-  </si>
-  <si>
-    <t>Shipper Api Testing</t>
-  </si>
-  <si>
-    <t>Employee Api Testing</t>
-  </si>
-  <si>
-    <t>Orders Api Testing</t>
-  </si>
-  <si>
-    <t>Territary Api Testing</t>
-  </si>
-  <si>
     <t>Varun</t>
   </si>
   <si>
@@ -150,18 +108,6 @@
     <t>Azure App Service Angular Application</t>
   </si>
   <si>
-    <t>Module 2 (Employee Screen)- UI &amp; Integration</t>
-  </si>
-  <si>
-    <t>Module 4 (Email) - Intgration</t>
-  </si>
-  <si>
-    <t>Module 5 - UI and Integration</t>
-  </si>
-  <si>
-    <t>Shipper Screen Testing</t>
-  </si>
-  <si>
     <t>Deployment Strategy</t>
   </si>
   <si>
@@ -201,28 +147,130 @@
     <t>Azure Function App</t>
   </si>
   <si>
-    <t>Module 1 (Administrator Screen) - UI &amp; Intgration</t>
-  </si>
-  <si>
-    <t>Module 3 - (Shipper Screeen)UI &amp; Integration</t>
-  </si>
-  <si>
-    <t>SignUp Api</t>
-  </si>
-  <si>
-    <t>Dashboard(Shipper)</t>
-  </si>
-  <si>
-    <t>Dashboard(Employee)</t>
-  </si>
-  <si>
-    <t>Dashboard(Administrator)</t>
-  </si>
-  <si>
-    <t>Employee Screen Testing</t>
-  </si>
-  <si>
-    <t>Administrator Screen Testing</t>
+    <t>wire Frame</t>
+  </si>
+  <si>
+    <t>Logo Design</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>Api Testing - Orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Testing - Employee </t>
+  </si>
+  <si>
+    <t>Api Testing - Territary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Testing - Shipper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Testing - Login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Testing - SignUp </t>
+  </si>
+  <si>
+    <t>UI Testing - Login</t>
+  </si>
+  <si>
+    <t>UI Testing - SignUP(Admin)</t>
+  </si>
+  <si>
+    <t>UI Testing - SignUP(Shipper)</t>
+  </si>
+  <si>
+    <t>UI Testing - SignUP(Employee)</t>
+  </si>
+  <si>
+    <t>UI Testing - Admin Dashboard</t>
+  </si>
+  <si>
+    <t>UI Testing - Shipper Dashboard</t>
+  </si>
+  <si>
+    <t>UI Testing - Employee Dashboard</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration Testing -Login</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration Testing -SignUp(Admin)</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration Testing -SignUp(Shipper)</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration Testing -SignUp(Employee)</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration Testing -Admin Dashboard</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration Testing -Shipper Dashboard</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration Testing -Employee Dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Creation - Territary Rest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Creation - Employee Rest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Creation - Login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Creation - SignUp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Creation - Shipper Rest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Api Creation - Orders Rest </t>
+  </si>
+  <si>
+    <t>UI Creation - Login</t>
+  </si>
+  <si>
+    <t>UI Creation - SignUp(Admin)</t>
+  </si>
+  <si>
+    <t>UI Creation - SignUp(Shipper)</t>
+  </si>
+  <si>
+    <t>UI Creation - SignUp(Employee)</t>
+  </si>
+  <si>
+    <t>UI Creation - Dashboard</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration with Api - Login</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration with Api - SignUp(Admin)</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration with Api - SignUp(Shipper)</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration with Api - SignUp(Employee)</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration with Api - Admin Dashboard</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration with Api - Shipper Dashboard</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration with Api - EmployeeDashboard</t>
+  </si>
+  <si>
+    <t>UI &amp; Integration with Api - Order Details Dashboard</t>
   </si>
 </sst>
 </file>
@@ -363,9 +411,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -374,6 +419,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C4:J86"/>
+  <dimension ref="B4:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -680,22 +728,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
@@ -720,6 +768,9 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
@@ -731,7 +782,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5">
         <v>45107</v>
@@ -774,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -793,15 +844,15 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H12" s="5">
-        <v>45108</v>
+        <v>45107</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>8</v>
@@ -812,15 +863,15 @@
         <v>3</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H13" s="5">
-        <v>45108</v>
+        <v>45107</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>8</v>
@@ -831,15 +882,15 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H14" s="5">
-        <v>45110</v>
+        <v>45108</v>
       </c>
       <c r="I14" s="7" t="s">
         <v>8</v>
@@ -850,15 +901,15 @@
         <v>5</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H15" s="5">
-        <v>45110</v>
+        <v>45108</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>8</v>
@@ -869,301 +920,363 @@
         <v>6</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H16" s="5">
-        <v>45112</v>
+        <v>45110</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C17" s="3">
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H17" s="5">
-        <v>45112</v>
+        <v>45110</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C18" s="3">
         <v>8</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H18" s="5">
-        <v>45112</v>
+        <v>45111</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="3">
         <v>9</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H19" s="5">
-        <v>45112</v>
+        <v>45111</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H20" s="5">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C21" s="3">
         <v>11</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H21" s="5">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C22" s="3">
         <v>12</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H22" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.3">
+        <v>45112</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C23" s="3">
         <v>13</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H23" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" x14ac:dyDescent="0.3">
+        <v>45112</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C24" s="3">
         <v>14</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45112</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C25" s="3">
         <v>15</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12" t="s">
-        <v>23</v>
+      <c r="D25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H25" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45112</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C26" s="3">
         <v>16</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>21</v>
+      <c r="D26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="H26" s="5">
         <v>45113</v>
       </c>
-      <c r="I26" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="3">
         <v>17</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="5">
         <v>45113</v>
       </c>
-      <c r="I27" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I27" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" s="3">
         <v>18</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="H28" s="5">
         <v>45113</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I28" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C29" s="3">
         <v>19</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H29" s="5">
         <v>45113</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="I29" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>20</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <v>21</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>22</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="G32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
+        <v>23</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <v>24</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="9"/>
+    </row>
     <row r="35" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -1172,581 +1285,760 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C36" s="3"/>
-      <c r="D36" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C37" s="3">
-        <v>1</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H37" s="5">
-        <v>45110</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C38" s="3">
-        <v>2</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="9"/>
+    </row>
+    <row r="38" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="5">
-        <v>45110</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C39" s="3">
-        <v>3</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="9"/>
+    </row>
+    <row r="39" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H39" s="5">
-        <v>45110</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J39" s="10"/>
-    </row>
-    <row r="40" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C40" s="3">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H40" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J40" s="10"/>
-    </row>
-    <row r="41" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="C41" s="3">
-        <v>5</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>32</v>
-      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" s="10"/>
-    </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C42" s="3">
-        <v>6</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H42" s="5">
-        <v>45112</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C43" s="3">
-        <v>7</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C44" s="3">
-        <v>8</v>
-      </c>
-      <c r="D44" s="12" t="s">
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+    </row>
+    <row r="44" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+    </row>
+    <row r="45" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C45" s="3"/>
+      <c r="D45" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+    </row>
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="H44" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C45" s="3">
-        <v>9</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" s="5">
+        <v>45110</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="C47" s="3">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C48" s="3"/>
-      <c r="D48" s="4" t="s">
-        <v>17</v>
+      <c r="G47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="5">
+        <v>45110</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C48" s="3">
+        <v>3</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C49" s="12">
-        <v>1</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12" t="s">
-        <v>24</v>
+      <c r="G48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" s="5">
+        <v>45110</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C49" s="3">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H49" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C50" s="12">
-        <v>2</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12" t="s">
-        <v>38</v>
+        <v>45110</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="10"/>
+    </row>
+    <row r="50" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C50" s="3">
+        <v>5</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H50" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I50" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C51" s="12">
-        <v>3</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12" t="s">
-        <v>26</v>
+        <v>45111</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="10"/>
+    </row>
+    <row r="51" spans="3:10" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="C51" s="3">
+        <v>6</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="H51" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C52" s="12">
-        <v>4</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12" t="s">
-        <v>24</v>
+        <v>45111</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="H52" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I52" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C53" s="12">
-        <v>5</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="12" t="s">
-        <v>38</v>
+        <v>45112</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C53" s="3">
+        <v>8</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H53" s="5">
-        <v>45113</v>
-      </c>
-      <c r="I53" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+        <v>45112</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C54" s="3">
+        <v>9</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" s="5">
+        <v>45112</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C55" s="3">
+        <v>10</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C56" s="6"/>
-      <c r="D56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C57" s="12">
-        <v>1</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>45</v>
+      <c r="G55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" s="5">
+        <v>45112</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C56" s="3">
+        <v>11</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" s="5">
+        <v>45113</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C57" s="3">
+        <v>12</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="G57" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="H57" s="5">
         <v>45114</v>
       </c>
-      <c r="I57" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C58" s="12">
-        <v>2</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>47</v>
+      <c r="I57" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C58" s="3">
+        <v>13</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="G58" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H58" s="5">
         <v>45114</v>
       </c>
-      <c r="I58" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="12">
-        <v>3</v>
+      <c r="I58" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C59" s="3">
+        <v>14</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="G59" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="H59" s="5">
-        <v>45114</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="12">
-        <v>4</v>
+        <v>45113</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C60" s="3">
+        <v>15</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E60" s="12"/>
-      <c r="F60" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H60" s="5">
-        <v>45114</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="12">
-        <v>5</v>
+        <v>45113</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C61" s="3">
+        <v>16</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
-      <c r="G61" s="12"/>
+      <c r="G61" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="H61" s="5">
-        <v>45114</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C62" s="12">
-        <v>6</v>
+        <v>45113</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C62" s="3">
+        <v>17</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
-      <c r="G62" s="12"/>
+      <c r="G62" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H62" s="5">
-        <v>45114</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C63" s="12">
-        <v>7</v>
+        <v>45113</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C63" s="3">
+        <v>18</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
+      <c r="G63" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="H63" s="5">
         <v>45114</v>
       </c>
-      <c r="I63" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
+      <c r="I63" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C64" s="3">
+        <v>19</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H64" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
+      <c r="C65" s="3">
+        <v>20</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="13"/>
     </row>
     <row r="67" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="D67" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
+    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C68" s="12">
+        <v>1</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H68" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C69" s="12">
+        <v>2</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C70" s="12">
+        <v>3</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C71" s="12">
+        <v>4</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C72" s="12">
+        <v>5</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+    </row>
+    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+    </row>
     <row r="75" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
+      <c r="C76" s="12">
+        <v>1</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="C77" s="12">
+        <v>2</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
+      <c r="C78" s="12">
+        <v>3</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="12">
+        <v>4</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" s="12"/>
+      <c r="H79" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
+      <c r="C80" s="12">
+        <v>5</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="81" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
+      <c r="C81" s="12">
+        <v>6</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="82" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
+      <c r="C82" s="12">
+        <v>7</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="83" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C84" s="3"/>
@@ -1759,9 +2051,135 @@
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
     </row>
     <row r="86" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/WBS - Sales-Application.xlsx
+++ b/WBS - Sales-Application.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sales_application_sprint_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC467E4-2E43-468F-ABB4-80985E65F1BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91CF56E-052B-4D70-8F4C-B97695DC53F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="84">
   <si>
     <t>Sr No</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>UI &amp; Integration with Api - Order Details Dashboard</t>
+  </si>
+  <si>
+    <t>Data Migration from Sql Server to Azure Database</t>
+  </si>
+  <si>
+    <t>Varun, Tanmay</t>
   </si>
 </sst>
 </file>
@@ -414,14 +420,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -728,15 +734,15 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:9" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="2" t="s">
@@ -1253,8 +1259,8 @@
       <c r="H33" s="5">
         <v>45114</v>
       </c>
-      <c r="I33" s="8" t="s">
-        <v>23</v>
+      <c r="I33" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1272,19 +1278,29 @@
       <c r="H34" s="5">
         <v>45114</v>
       </c>
-      <c r="I34" s="8" t="s">
-        <v>23</v>
+      <c r="I34" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="C35" s="3">
+        <v>25</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="5">
+        <v>45114</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="3:10" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -1610,8 +1626,8 @@
       <c r="H57" s="5">
         <v>45114</v>
       </c>
-      <c r="I57" s="13" t="s">
-        <v>28</v>
+      <c r="I57" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.3">
@@ -1629,8 +1645,8 @@
       <c r="H58" s="5">
         <v>45114</v>
       </c>
-      <c r="I58" s="13" t="s">
-        <v>28</v>
+      <c r="I58" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.3">
@@ -1724,8 +1740,8 @@
       <c r="H63" s="5">
         <v>45114</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>28</v>
+      <c r="I63" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.3">
@@ -1743,8 +1759,8 @@
       <c r="H64" s="5">
         <v>45114</v>
       </c>
-      <c r="I64" s="13" t="s">
-        <v>28</v>
+      <c r="I64" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="3:9" x14ac:dyDescent="0.3">
@@ -1762,8 +1778,8 @@
       <c r="H65" s="5">
         <v>45114</v>
       </c>
-      <c r="I65" s="13" t="s">
-        <v>28</v>
+      <c r="I65" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="3:9" x14ac:dyDescent="0.3">
@@ -1799,7 +1815,7 @@
         <v>19</v>
       </c>
       <c r="H68" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I68" s="8" t="s">
         <v>23</v>
@@ -1818,7 +1834,7 @@
         <v>18</v>
       </c>
       <c r="H69" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I69" s="8" t="s">
         <v>23</v>
@@ -1837,7 +1853,7 @@
         <v>21</v>
       </c>
       <c r="H70" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I70" s="8" t="s">
         <v>23</v>
@@ -1856,7 +1872,7 @@
         <v>25</v>
       </c>
       <c r="H71" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>23</v>
@@ -1875,7 +1891,7 @@
         <v>24</v>
       </c>
       <c r="H72" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I72" s="8" t="s">
         <v>23</v>
@@ -1919,9 +1935,11 @@
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
+      <c r="G76" s="12" t="s">
+        <v>19</v>
+      </c>
       <c r="H76" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>28</v>
@@ -1936,9 +1954,11 @@
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
+      <c r="G77" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="H77" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>28</v>
@@ -1953,9 +1973,11 @@
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
+      <c r="G78" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="H78" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>28</v>
@@ -1972,9 +1994,11 @@
       <c r="F79" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G79" s="12"/>
+      <c r="G79" s="12" t="s">
+        <v>83</v>
+      </c>
       <c r="H79" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>28</v>
@@ -1989,9 +2013,11 @@
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
+      <c r="G80" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H80" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>28</v>
@@ -2006,9 +2032,11 @@
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
+      <c r="G81" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="H81" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>28</v>
@@ -2023,9 +2051,11 @@
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
+      <c r="G82" s="12" t="s">
+        <v>25</v>
+      </c>
       <c r="H82" s="5">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>28</v>
@@ -2068,118 +2098,118 @@
       <c r="I86" s="3"/>
     </row>
     <row r="92" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="14"/>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="H93" s="16"/>
-      <c r="I93" s="16"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="14"/>
     </row>
     <row r="94" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="14"/>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="14"/>
     </row>
     <row r="96" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="14"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="14"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="14"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="14"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B106" s="16"/>
-      <c r="C106" s="16"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
